--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FA2A78-6357-414D-B8BD-2FFAFD63C592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B164CE1-4AA4-43AF-8EC2-9BBDC21FB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>Response Name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Hi, \nWelcome to Marlabs Website.\nI'm &lt;b&gt;mChat&lt;/b&gt;, \nHow can I help you today with your queries?</t>
-  </si>
-  <si>
-    <t>Events&amp;Webinar:https://www.marlabs.com/events-webinars/, Careers:https://www.marlabs.com/careers/, Intellegent Automation:https://www.marlabs.com/intelligent-automation/, Intellegent Experience:https://www.marlabs.com/intelligent-experiences/, Divergence:https://www.marlabs.com/divergence/</t>
   </si>
   <si>
     <t>From past 25 years we have been providing best solutions to our client with our strengths in Rich Capabilities Mix, Speed and Nimbleness, Empathy-fueled Drive and Powerful Ecosystem.</t>
@@ -493,9 +490,6 @@
     <t>Machine learning is a branch of artificial intelligence (AI) and computer science which focuses on the use of data and algorithms to imitate the way that humans learn, gradually improving its accuracy.</t>
   </si>
   <si>
-    <t>Purpose:/ML_Purpose_In_PA, Usages:/How_ML_Used_In_PA</t>
-  </si>
-  <si>
     <t>action_utter_How_ML_Used_In_PA</t>
   </si>
   <si>
@@ -610,6 +604,63 @@
   </si>
   <si>
     <t>action_utter_PRE_Disadvantages</t>
+  </si>
+  <si>
+    <t>Visit Website: https://www.marlabs.com/intelligent-automation/</t>
+  </si>
+  <si>
+    <t>Fuzzy logic in AI:/FL_AI</t>
+  </si>
+  <si>
+    <t>Click the button to know more,</t>
+  </si>
+  <si>
+    <t>Events &amp; Webinar:https://www.marlabs.com/events-webinars/, Careers:https://www.marlabs.com/careers/, Intelligent Experience:https://www.marlabs.com/intelligent-experiences/, Divergence:https://www.marlabs.com/divergence/</t>
+  </si>
+  <si>
+    <t>action_utter_RPA_Design_Implementation_Topics</t>
+  </si>
+  <si>
+    <t>Select any topic to know more,</t>
+  </si>
+  <si>
+    <t>Benefits:/API_Benefits, API Security:/ API_Security,API Performance:/API_Performance,API enabling system:/API_Enable, API driven process:/API_Driven, API endpoint:/API_EndPoint</t>
+  </si>
+  <si>
+    <t>Process discovery:/PD_Definition, Process mining:/PM_Definition,Process re-engineering:/PRE_Definition,API-enabling system driven process end-points:/API,Experts in industry-leading RPA products and platforms:/How_Marlabs_Expert</t>
+  </si>
+  <si>
+    <t>Recognitions:/Marlabs_Recognition, Our best products:/Marlabs_Best_Products,Solution areas:/Marlabs_Solution_Area</t>
+  </si>
+  <si>
+    <t>Visit Website: https://www.marlabs.com/intelligent-automation/#fws_62e0d9b811ce8</t>
+  </si>
+  <si>
+    <t>Purpose:/ML_Purpose_In_PA, Usages:/How_ML_Used_In_PA,Process analyticsTypes:/PA_Types</t>
+  </si>
+  <si>
+    <t>Process analyticsTypes:/PA_Types</t>
+  </si>
+  <si>
+    <t>Descriptive Analytics:/Descriptive_PA_Definition ,Predictive Analytics:/Predictive_PA_Definition, Prescriptive Analytics:/Prescriptive_PA_Definition</t>
+  </si>
+  <si>
+    <t>RPA Bot as service:/AI_RPA_bot,Intelligent Automation:/AI_IA</t>
+  </si>
+  <si>
+    <t>ML-powered process analytics:/ML_Definition,AI automation bots as a service:/AI_bot_service,Computer Vision:/CV_Definition,NLP:/NLP_Definition,Fuzzy logic:/FL_Definition,Digital assistants:/DA_Definition,Chatbots:/Chatbot_Definition</t>
+  </si>
+  <si>
+    <t>action_utter_Intelligent_Automation</t>
+  </si>
+  <si>
+    <t>RPA Design &amp; Implementation:/RPA_Design_Implementation_Topics, Intelligent Automation:/Intelligent_Automation_Topics</t>
+  </si>
+  <si>
+    <t>action_utter_Intelligent_Automation_Topics</t>
+  </si>
+  <si>
+    <t>Intelligent Automation:/Intelligent_Automation</t>
   </si>
 </sst>
 </file>
@@ -672,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -688,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,17 +1057,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39" style="3" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -1033,659 +1087,718 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>81</v>
+      <c r="C35" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="3" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="3" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="3" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="C52" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="3" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="3" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="3" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="C67" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="3" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="74" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="75" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="3" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B164CE1-4AA4-43AF-8EC2-9BBDC21FB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FDE30C-0A5D-4F57-9E16-C4CD82A837F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -533,9 +533,6 @@
     <t>Process reengineering is the analysis and redesign of workflows within and between enterprises to optimize end to end processes and automate non-value-added tasks.</t>
   </si>
   <si>
-    <t>Stages:/PRE_Stages, Advantages:/PRE_Advantages, Disadvantages:/PRE_DIsadvantages</t>
-  </si>
-  <si>
     <t>action_utter_PRE_Stages</t>
   </si>
   <si>
@@ -661,6 +658,9 @@
   </si>
   <si>
     <t>Intelligent Automation:/Intelligent_Automation</t>
+  </si>
+  <si>
+    <t>Stages:/PRE_Stages, Benefits:/PRE_Benefits Disadvantages:/PRE_Disadvantages</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,44 +1088,44 @@
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1136,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1274,10 +1274,10 @@
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>50</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>113</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>123</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>125</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -1658,9 +1658,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>136</v>
@@ -1674,7 +1674,7 @@
         <v>138</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1685,10 +1685,10 @@
         <v>140</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>141</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>143</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>144</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>151</v>
       </c>
@@ -1747,58 +1747,58 @@
         <v>154</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="75" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="76" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="3" t="s">
+    </row>
+    <row r="77" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FDE30C-0A5D-4F57-9E16-C4CD82A837F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF07A3F-ECB1-4D3B-B4EC-E339D6C37556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -660,7 +660,7 @@
     <t>Intelligent Automation:/Intelligent_Automation</t>
   </si>
   <si>
-    <t>Stages:/PRE_Stages, Benefits:/PRE_Benefits Disadvantages:/PRE_Disadvantages</t>
+    <t>Stages:/PRE_Stages, Benefits:/PRE_Benefits, Disadvantages:/PRE_Disadvantages</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF07A3F-ECB1-4D3B-B4EC-E339D6C37556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEC5B7-30F3-4E38-B12F-DCC8075F7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>Intelligent Automation (IA) is a combination of Robotic Process Automation (RPA) and artificial intelligence (AI) technologies which together empower rapid end-to-end business process automation and accelerate digital transformation.</t>
   </si>
   <si>
-    <t>action_utter_AI_Aiaas</t>
-  </si>
-  <si>
     <t>AIaas stands for Artificial Intelligence as a service</t>
   </si>
   <si>
@@ -347,23 +344,7 @@
     <t>action_utter_AI_DisAdvantages</t>
   </si>
   <si>
-    <t>&lt;li&gt; Expensive&lt;/li&gt;	                                                                       &lt;li&gt;Requires deep technical expertise &lt;/li&gt;                                    &lt;li&gt;Limited supply of qualified workers to build AI tools&lt;/li&gt;
-&lt;li&gt;Only knows what it's been shown; and&lt;/li&gt;
-&lt;li&gt;Lack of ability to generalize from one task to another.&lt;/li&gt;</t>
-  </si>
-  <si>
     <t>Advantages:/AI_Advantages,Benefits:/AI_Benefits</t>
-  </si>
-  <si>
-    <t>action_ utter_AI_Benefits</t>
-  </si>
-  <si>
-    <t>&lt;li&gt;Chatbots use AI to understand customer problems faster and provide more efficient answers&lt;/li&gt;
-&lt;li&gt;Intelligent assistants use AI to parse critical information from large free-text datasets to improve scheduling&lt;/li&gt;
-&lt;li&gt;Recommendation engines can provide automated recommendations for TV shows based on users viewing habits&lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>action_ utter_AI_Technology</t>
   </si>
   <si>
     <t>Intelligent Automation (IA) is a combination of Robotic Process Automation (RPA) and artificial intelligence (AI) technologies together.</t>
@@ -633,9 +614,6 @@
     <t>Visit Website: https://www.marlabs.com/intelligent-automation/#fws_62e0d9b811ce8</t>
   </si>
   <si>
-    <t>Purpose:/ML_Purpose_In_PA, Usages:/How_ML_Used_In_PA,Process analyticsTypes:/PA_Types</t>
-  </si>
-  <si>
     <t>Process analyticsTypes:/PA_Types</t>
   </si>
   <si>
@@ -661,6 +639,28 @@
   </si>
   <si>
     <t>Stages:/PRE_Stages, Benefits:/PRE_Benefits, Disadvantages:/PRE_Disadvantages</t>
+  </si>
+  <si>
+    <t>action_utter_AI_Benefits</t>
+  </si>
+  <si>
+    <t>action_utter_AI_Technology</t>
+  </si>
+  <si>
+    <t>These are the Benefits:&lt;li&gt;Chatbots use AI to understand customer problems faster and provide more efficient answers&lt;/li&gt;
+&lt;li&gt;Intelligent assistants use AI to parse critical information from large free-text datasets to improve scheduling&lt;/li&gt;
+&lt;li&gt;Recommendation engines can provide automated recommendations for TV shows based on users viewing habits&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>These are the Disadvantages:&lt;li&gt; Expensive&lt;/li&gt;	                                                                       &lt;li&gt;Requires deep technical expertise &lt;/li&gt;                                    &lt;li&gt;Limited supply of qualified workers to build AI tools&lt;/li&gt;
+&lt;li&gt;Only knows what it's been shown&lt;/li&gt;
+&lt;li&gt;Lack of ability to generalize from one task to another.&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>Purpose:/ML_Purpose_In_PA, Usages:/How_ML_Used_In_PA,Process analytics types:/PA_Types</t>
+  </si>
+  <si>
+    <t>action_utter_AI_AIaas</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,44 +1088,44 @@
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1136,10 +1136,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,342 +1463,342 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>92</v>
+      <c r="C43" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEC5B7-30F3-4E38-B12F-DCC8075F7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ADE400-7B19-48C6-BA43-3086268C8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
   <si>
     <t>Response Name</t>
   </si>
@@ -593,9 +593,6 @@
     <t>Click the button to know more,</t>
   </si>
   <si>
-    <t>Events &amp; Webinar:https://www.marlabs.com/events-webinars/, Careers:https://www.marlabs.com/careers/, Intelligent Experience:https://www.marlabs.com/intelligent-experiences/, Divergence:https://www.marlabs.com/divergence/</t>
-  </si>
-  <si>
     <t>action_utter_RPA_Design_Implementation_Topics</t>
   </si>
   <si>
@@ -661,6 +658,18 @@
   </si>
   <si>
     <t>action_utter_AI_AIaas</t>
+  </si>
+  <si>
+    <t>action_utter_Digital_Solutions</t>
+  </si>
+  <si>
+    <t>Digital Solutions:/Digital_Solutions</t>
+  </si>
+  <si>
+    <t>Divergence:https://www.marlabs.com/divergence/,Our Alliances:https://www.marlabs.com/our-alliances/,Digital Victories:https://www.marlabs.com/digital-victories/,Events &amp; Webinars:https://www.marlabs.com/events-webinars/,Now &amp; Next:https://www.marlabs.com/now-and-next/, Careers:https://www.marlabs.com/careers/</t>
+  </si>
+  <si>
+    <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,718 +1095,732 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>151</v>
+      <c r="C73" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>161</v>
       </c>
     </row>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ADE400-7B19-48C6-BA43-3086268C8E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17579A38-6D39-4580-A8B9-D7478536D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="191">
   <si>
     <t>Response Name</t>
   </si>
@@ -224,9 +224,6 @@
     <t>RPA Chatbot:/Chatbot_RPA, Benefits:/Chatbot_Benefits</t>
   </si>
   <si>
-    <t>Workings:/PD_Working, Benefits:/PD_Benefits</t>
-  </si>
-  <si>
     <t>Usage:/PM_Usage,Benefits:/PM_Benefits</t>
   </si>
   <si>
@@ -590,13 +587,7 @@
     <t>Fuzzy logic in AI:/FL_AI</t>
   </si>
   <si>
-    <t>Click the button to know more,</t>
-  </si>
-  <si>
     <t>action_utter_RPA_Design_Implementation_Topics</t>
-  </si>
-  <si>
-    <t>Select any topic to know more,</t>
   </si>
   <si>
     <t>Benefits:/API_Benefits, API Security:/ API_Security,API Performance:/API_Performance,API enabling system:/API_Enable, API driven process:/API_Driven, API endpoint:/API_EndPoint</t>
@@ -670,6 +661,12 @@
   </si>
   <si>
     <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
+  </si>
+  <si>
+    <t>Click any of the button to know more,</t>
+  </si>
+  <si>
+    <t>Process:/PD_Working, Benefits:/PD_Benefits</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,66 +1100,66 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1173,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,13 +1207,13 @@
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1245,7 +1242,7 @@
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>51</v>
@@ -1291,13 +1288,13 @@
     </row>
     <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
     </row>
     <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -1337,7 +1334,7 @@
     </row>
     <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>39</v>
@@ -1364,13 +1361,13 @@
     </row>
     <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -1391,13 +1388,13 @@
     </row>
     <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1418,410 +1415,410 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17579A38-6D39-4580-A8B9-D7478536D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CB23A5-E817-4AE1-AD8B-76D418A59AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
@@ -663,10 +663,10 @@
     <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
   </si>
   <si>
-    <t>Click any of the button to know more,</t>
-  </si>
-  <si>
     <t>Process:/PD_Working, Benefits:/PD_Benefits</t>
+  </si>
+  <si>
+    <t>Click any of the buttons to know more,</t>
   </si>
 </sst>
 </file>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
         <v>185</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>177</v>
@@ -1125,7 +1125,7 @@
         <v>174</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>175</v>
@@ -1139,7 +1139,7 @@
         <v>165</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>167</v>
@@ -1153,7 +1153,7 @@
         <v>176</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>173</v>
@@ -1367,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CB23A5-E817-4AE1-AD8B-76D418A59AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889C8CA-8721-4EED-A9B2-859BECDBA662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C305AD81-7B09-4460-9FA4-D61D86DA96BD}"/>
   </bookViews>
   <sheets>
     <sheet name="responses" sheetId="1" r:id="rId1"/>
+    <sheet name="forms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,8 +35,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keshab Manni</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{BE6721CB-DEF2-46C9-90EA-1E7387D49088}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Keshab Manni:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+{input_name, slot_name,input_type}; {input_name, slot_name, input_type}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="197">
   <si>
     <t>Response Name</t>
   </si>
@@ -657,23 +692,41 @@
     <t>Digital Solutions:/Digital_Solutions</t>
   </si>
   <si>
-    <t>Divergence:https://www.marlabs.com/divergence/,Our Alliances:https://www.marlabs.com/our-alliances/,Digital Victories:https://www.marlabs.com/digital-victories/,Events &amp; Webinars:https://www.marlabs.com/events-webinars/,Now &amp; Next:https://www.marlabs.com/now-and-next/, Careers:https://www.marlabs.com/careers/</t>
-  </si>
-  <si>
     <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
   </si>
   <si>
     <t>Process:/PD_Working, Benefits:/PD_Benefits</t>
   </si>
   <si>
-    <t>Click any of the buttons to know more,</t>
+    <t>action_utter_Main_Menu</t>
+  </si>
+  <si>
+    <t>Please type in your queries or click on any of the topics below,</t>
+  </si>
+  <si>
+    <t>action_utter_Contact_Form</t>
+  </si>
+  <si>
+    <t>Form Title</t>
+  </si>
+  <si>
+    <t>Form Fields</t>
+  </si>
+  <si>
+    <t>Sub Title</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>[Name,user_name,text];[Phone,user_phone,text];[Email,user_email,email];[Query,user_query,text]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,8 +740,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -747,6 +819,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47F5EE0-A80F-4F83-BB66-CB97BAE0C58E}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,732 +1170,740 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>190</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="49" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="68" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1825,4 +1911,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAB6AB0-A972-4333-B192-503AB10465A8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62AD18D-5198-4336-9B35-917A25AF94C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="responses"/>
-    <sheet r:id="rId2" sheetId="2" name="forms"/>
+    <sheet name="responses" sheetId="1" r:id="rId1"/>
+    <sheet name="forms" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="270">
   <si>
     <t>Response Name</t>
   </si>
@@ -666,12 +672,230 @@
  &lt;li&gt;Manufacturing and retail business&lt;/li&gt;
  &lt;li&gt;Government&lt;/li&gt;</t>
   </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>Digital Solutions</t>
+  </si>
+  <si>
+    <t>Intelligent Automation</t>
+  </si>
+  <si>
+    <t>NLP Stands</t>
+  </si>
+  <si>
+    <t>NLP Definition</t>
+  </si>
+  <si>
+    <t>NLP Application</t>
+  </si>
+  <si>
+    <t>Chatbot Definition</t>
+  </si>
+  <si>
+    <t>Chatbot Benefits</t>
+  </si>
+  <si>
+    <t>AI IA</t>
+  </si>
+  <si>
+    <t>AI AI</t>
+  </si>
+  <si>
+    <t>RPA Design &amp; Implementation</t>
+  </si>
+  <si>
+    <t>Descriptive PA</t>
+  </si>
+  <si>
+    <t>Predictive PA</t>
+  </si>
+  <si>
+    <t>Prescriptive PA</t>
+  </si>
+  <si>
+    <t>Marlabs' Expertise</t>
+  </si>
+  <si>
+    <t>EP' Importanceise</t>
+  </si>
+  <si>
+    <t>ML' Definitionise</t>
+  </si>
+  <si>
+    <t>PA' Typesise</t>
+  </si>
+  <si>
+    <t>Marlabs' Recognitions</t>
+  </si>
+  <si>
+    <t>AI' Advantagess</t>
+  </si>
+  <si>
+    <t>AI' DisAdvantagess</t>
+  </si>
+  <si>
+    <t>AI' Benefitss</t>
+  </si>
+  <si>
+    <t>API' Enables</t>
+  </si>
+  <si>
+    <t>PA' Definitions</t>
+  </si>
+  <si>
+    <t>PRE' Stagess</t>
+  </si>
+  <si>
+    <t>PRE' Benefitss</t>
+  </si>
+  <si>
+    <t>PRE' Challengess</t>
+  </si>
+  <si>
+    <t>Marlabs' Solution Area</t>
+  </si>
+  <si>
+    <t>RPA' Definitions</t>
+  </si>
+  <si>
+    <t>Marlabs' Best Products</t>
+  </si>
+  <si>
+    <t>How' Industry Leading</t>
+  </si>
+  <si>
+    <t>API' Main reasons</t>
+  </si>
+  <si>
+    <t>ML_Purpose' Purpose In PA</t>
+  </si>
+  <si>
+    <t>How_ML_Used' ML Used In PA</t>
+  </si>
+  <si>
+    <t>Computer Vision Definition</t>
+  </si>
+  <si>
+    <t>Process Discovery Definition</t>
+  </si>
+  <si>
+    <t>Process Mining Definition</t>
+  </si>
+  <si>
+    <t>AI' AboutAIise</t>
+  </si>
+  <si>
+    <t>PRE' Definitionise</t>
+  </si>
+  <si>
+    <t>RPA' Using Areas</t>
+  </si>
+  <si>
+    <t>Computer Vision Usage</t>
+  </si>
+  <si>
+    <t>Computer Vision Benefits</t>
+  </si>
+  <si>
+    <t>Computer Vision Full</t>
+  </si>
+  <si>
+    <t>Computer Vision AIaas</t>
+  </si>
+  <si>
+    <t>Computer Vision Automation</t>
+  </si>
+  <si>
+    <t>Computer Vision Technology</t>
+  </si>
+  <si>
+    <t>Computer Vision Details</t>
+  </si>
+  <si>
+    <t>Computer Vision Intent</t>
+  </si>
+  <si>
+    <t>Computer Vision Driven</t>
+  </si>
+  <si>
+    <t>Computer Vision Working</t>
+  </si>
+  <si>
+    <t>Computer Vision Security</t>
+  </si>
+  <si>
+    <t>Computer Vision Performance</t>
+  </si>
+  <si>
+    <t>Computer Vision Disadvantages</t>
+  </si>
+  <si>
+    <t>Computer Vision Workings</t>
+  </si>
+  <si>
+    <t>NLP in RPA</t>
+  </si>
+  <si>
+    <t>NLP Structured Document</t>
+  </si>
+  <si>
+    <t>NLP Unstructured Documents</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic Definition</t>
+  </si>
+  <si>
+    <t>Fuzzy Logic in AI</t>
+  </si>
+  <si>
+    <t>Digital Assistant Definition</t>
+  </si>
+  <si>
+    <t>Digital Assistant in RPA</t>
+  </si>
+  <si>
+    <t>Digital Assistant Examples</t>
+  </si>
+  <si>
+    <t>Chatbots for RPA</t>
+  </si>
+  <si>
+    <t>Process Discovery Workings</t>
+  </si>
+  <si>
+    <t>Process Discovery Benefits</t>
+  </si>
+  <si>
+    <t>Process Mining Usage</t>
+  </si>
+  <si>
+    <t>Process Mining Benefits</t>
+  </si>
+  <si>
+    <t>Baas</t>
+  </si>
+  <si>
+    <t>Baas Definition</t>
+  </si>
+  <si>
+    <t>Raas</t>
+  </si>
+  <si>
+    <t>RPA bot as a service</t>
+  </si>
+  <si>
+    <t>RPAaas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,12 +926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc5e0b4"/>
+        <fgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5b9bd5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -745,41 +970,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -790,10 +1030,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -831,71 +1071,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -923,7 +1163,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -946,11 +1186,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -959,13 +1199,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -975,7 +1215,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -984,7 +1224,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -993,7 +1233,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1001,10 +1241,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1069,901 +1309,1137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="45.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="51.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="39.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="67.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="45.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A3" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="114" customFormat="1" s="1">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="73.5" customFormat="1" s="1">
-      <c r="A5" s="8" t="s">
+      <c r="E4" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="100.5" customFormat="1" s="1">
-      <c r="A6" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="100.5" customFormat="1" s="1">
-      <c r="A7" s="8" t="s">
+      <c r="E6" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60" customFormat="1" s="1">
-      <c r="A8" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="141" customFormat="1" s="1">
-      <c r="A9" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="114" customFormat="1" s="1">
-      <c r="A10" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A11" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A12" s="8" t="s">
+      <c r="E11" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A15" s="8" t="s">
+      <c r="E14" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A16" s="8" t="s">
+      <c r="E15" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A17" s="8" t="s">
+      <c r="E16" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A18" s="8" t="s">
+      <c r="E17" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A20" s="8" t="s">
+      <c r="E19" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A21" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A22" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A23" s="8" t="s">
+      <c r="E22" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="8" t="s">
+      <c r="E23" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A25" s="8" t="s">
+      <c r="E24" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A26" s="8" t="s">
+      <c r="E25" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A27" s="8" t="s">
+      <c r="E26" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A28" s="8" t="s">
+      <c r="E27" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A29" s="8" t="s">
+      <c r="E28" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A30" s="8" t="s">
+      <c r="E29" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A31" s="8" t="s">
+      <c r="E30" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A32" s="8" t="s">
+      <c r="E31" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A33" s="8" t="s">
+      <c r="E32" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A34" s="8" t="s">
+      <c r="E33" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A35" s="8" t="s">
+      <c r="E34" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A36" s="8" t="s">
+      <c r="E35" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A37" s="8" t="s">
+      <c r="E36" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A38" s="8" t="s">
+      <c r="E37" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A39" s="8" t="s">
+      <c r="E38" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>101</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A40" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A41" s="8" t="s">
+      <c r="E40" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A42" s="8" t="s">
+      <c r="E41" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A43" s="8" t="s">
+      <c r="E42" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A44" s="8" t="s">
+      <c r="E43" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A45" s="8" t="s">
+      <c r="E44" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A46" s="8" t="s">
+      <c r="E45" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D46" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A47" s="8" t="s">
+      <c r="E46" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A48" s="8" t="s">
+      <c r="E47" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A49" s="8" t="s">
+      <c r="E48" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A50" s="8" t="s">
+      <c r="E49" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="8" t="s">
+      <c r="E50" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A52" s="8" t="s">
+      <c r="E51" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A53" s="8" t="s">
+      <c r="E52" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D53" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A54" s="8" t="s">
+      <c r="E53" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>137</v>
       </c>
       <c r="D54" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A55" s="8" t="s">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A56" s="8" t="s">
+      <c r="E55" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A57" s="8" t="s">
+      <c r="E56" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A58" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A59" s="8" t="s">
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D59" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A60" s="8" t="s">
+      <c r="E59" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>150</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A61" s="8" t="s">
+      <c r="E60" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>152</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A62" s="8" t="s">
+      <c r="E61" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>154</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A63" s="8" t="s">
+      <c r="E62" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A64" s="8" t="s">
+      <c r="E63" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D64" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A65" s="8" t="s">
+      <c r="E64" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A66" s="8" t="s">
+      <c r="E65" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D66" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A67" s="8" t="s">
+      <c r="E66" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D67" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A68" s="8" t="s">
+      <c r="E67" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A69" s="8" t="s">
+      <c r="E68" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D69" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A70" s="8" t="s">
+      <c r="E69" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>174</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A71" s="8" t="s">
+      <c r="E70" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>176</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A72" s="8" t="s">
+      <c r="E71" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A73" s="8" t="s">
+      <c r="E72" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>180</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A74" s="8" t="s">
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D74" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A75" s="8" t="s">
+      <c r="E74" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>185</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A76" s="8" t="s">
+      <c r="E75" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A77" s="8" t="s">
+      <c r="E76" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A78" s="8" t="s">
+      <c r="E77" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>191</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A79" s="8" t="s">
+      <c r="E78" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D79" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A80" s="8" t="s">
+      <c r="E79" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
+      <c r="E80" s="8" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1973,13 +2449,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="30.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="46.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="59.25" customFormat="1" s="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2007,5 +2483,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62AD18D-5198-4336-9B35-917A25AF94C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A1A95-EA98-4645-9825-BBA53BBB8084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="235">
   <si>
     <t>Response Name</t>
   </si>
@@ -700,84 +700,24 @@
     <t>Chatbot Benefits</t>
   </si>
   <si>
-    <t>AI IA</t>
-  </si>
-  <si>
-    <t>AI AI</t>
-  </si>
-  <si>
     <t>RPA Design &amp; Implementation</t>
   </si>
   <si>
-    <t>Descriptive PA</t>
-  </si>
-  <si>
-    <t>Predictive PA</t>
-  </si>
-  <si>
-    <t>Prescriptive PA</t>
-  </si>
-  <si>
     <t>Marlabs' Expertise</t>
   </si>
   <si>
-    <t>EP' Importanceise</t>
-  </si>
-  <si>
-    <t>ML' Definitionise</t>
-  </si>
-  <si>
-    <t>PA' Typesise</t>
-  </si>
-  <si>
     <t>Marlabs' Recognitions</t>
   </si>
   <si>
-    <t>AI' Advantagess</t>
-  </si>
-  <si>
-    <t>AI' DisAdvantagess</t>
-  </si>
-  <si>
-    <t>AI' Benefitss</t>
-  </si>
-  <si>
-    <t>API' Enables</t>
-  </si>
-  <si>
-    <t>PA' Definitions</t>
-  </si>
-  <si>
-    <t>PRE' Stagess</t>
-  </si>
-  <si>
-    <t>PRE' Benefitss</t>
-  </si>
-  <si>
-    <t>PRE' Challengess</t>
-  </si>
-  <si>
     <t>Marlabs' Solution Area</t>
   </si>
   <si>
-    <t>RPA' Definitions</t>
-  </si>
-  <si>
     <t>Marlabs' Best Products</t>
   </si>
   <si>
     <t>How' Industry Leading</t>
   </si>
   <si>
-    <t>API' Main reasons</t>
-  </si>
-  <si>
-    <t>ML_Purpose' Purpose In PA</t>
-  </si>
-  <si>
-    <t>How_ML_Used' ML Used In PA</t>
-  </si>
-  <si>
     <t>Computer Vision Definition</t>
   </si>
   <si>
@@ -787,52 +727,7 @@
     <t>Process Mining Definition</t>
   </si>
   <si>
-    <t>AI' AboutAIise</t>
-  </si>
-  <si>
-    <t>PRE' Definitionise</t>
-  </si>
-  <si>
-    <t>RPA' Using Areas</t>
-  </si>
-  <si>
     <t>Computer Vision Usage</t>
-  </si>
-  <si>
-    <t>Computer Vision Benefits</t>
-  </si>
-  <si>
-    <t>Computer Vision Full</t>
-  </si>
-  <si>
-    <t>Computer Vision AIaas</t>
-  </si>
-  <si>
-    <t>Computer Vision Automation</t>
-  </si>
-  <si>
-    <t>Computer Vision Technology</t>
-  </si>
-  <si>
-    <t>Computer Vision Details</t>
-  </si>
-  <si>
-    <t>Computer Vision Intent</t>
-  </si>
-  <si>
-    <t>Computer Vision Driven</t>
-  </si>
-  <si>
-    <t>Computer Vision Working</t>
-  </si>
-  <si>
-    <t>Computer Vision Security</t>
-  </si>
-  <si>
-    <t>Computer Vision Performance</t>
-  </si>
-  <si>
-    <t>Computer Vision Disadvantages</t>
   </si>
   <si>
     <t>Computer Vision Workings</t>
@@ -1315,8 +1210,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,7 +1346,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -1464,7 +1359,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1372,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="8" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,7 +1385,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1398,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="8" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,7 +1413,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="8" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,7 +1426,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,7 +1439,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1585,7 +1480,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="8" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1613,7 +1508,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="8" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1521,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1536,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="8" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1549,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,7 +1564,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="8" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1682,7 +1577,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1590,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1723,7 +1618,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1751,7 +1646,7 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="8" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1764,7 +1659,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1777,7 +1672,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1687,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="8" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1700,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="8" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,7 +1713,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="8" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +1728,7 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1743,7 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="8" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,7 +1758,7 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,7 +1771,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="8" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,7 +1784,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="8" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,9 +1798,7 @@
         <v>106</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -1916,9 +1809,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -1929,9 +1820,7 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="8" t="s">
-        <v>241</v>
-      </c>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -1944,9 +1833,7 @@
         <v>113</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="8" t="s">
-        <v>207</v>
-      </c>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -1959,9 +1846,7 @@
         <v>116</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="8" t="s">
-        <v>235</v>
-      </c>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -1974,9 +1859,7 @@
         <v>119</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -1987,9 +1870,7 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -2000,9 +1881,7 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -2013,9 +1892,7 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -2026,9 +1903,7 @@
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="8" t="s">
-        <v>243</v>
-      </c>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
@@ -2039,9 +1914,7 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="8" t="s">
-        <v>244</v>
-      </c>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -2052,9 +1925,7 @@
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -2067,9 +1938,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -2093,9 +1962,7 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="8" t="s">
-        <v>220</v>
-      </c>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -2106,9 +1973,7 @@
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -2119,9 +1984,7 @@
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="8" t="s">
-        <v>247</v>
-      </c>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -2145,9 +2008,7 @@
         <v>148</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="8" t="s">
-        <v>213</v>
-      </c>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -2158,9 +2019,7 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="8" t="s">
-        <v>229</v>
-      </c>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
@@ -2171,9 +2030,7 @@
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -2184,9 +2041,7 @@
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="8" t="s">
-        <v>249</v>
-      </c>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -2197,9 +2052,7 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
@@ -2212,9 +2065,7 @@
         <v>159</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -2225,9 +2076,7 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="8" t="s">
-        <v>239</v>
-      </c>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -2240,9 +2089,7 @@
         <v>164</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="8" t="s">
-        <v>230</v>
-      </c>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
@@ -2255,9 +2102,7 @@
         <v>167</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
@@ -2268,9 +2113,7 @@
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="8" t="s">
-        <v>231</v>
-      </c>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
@@ -2283,9 +2126,7 @@
         <v>172</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="8" t="s">
-        <v>215</v>
-      </c>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
@@ -2296,9 +2137,7 @@
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -2309,9 +2148,7 @@
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="8" t="s">
-        <v>210</v>
-      </c>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
@@ -2322,9 +2159,7 @@
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="8" t="s">
-        <v>211</v>
-      </c>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
@@ -2348,9 +2183,7 @@
         <v>183</v>
       </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="8" t="s">
-        <v>236</v>
-      </c>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
@@ -2361,9 +2194,7 @@
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
@@ -2374,9 +2205,7 @@
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
@@ -2387,9 +2216,7 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="8" t="s">
-        <v>250</v>
-      </c>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
@@ -2400,9 +2227,7 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="8" t="s">
-        <v>224</v>
-      </c>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -2415,9 +2240,7 @@
         <v>194</v>
       </c>
       <c r="D79" s="4"/>
-      <c r="E79" s="8" t="s">
-        <v>226</v>
-      </c>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
@@ -2428,9 +2251,7 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="8" t="s">
-        <v>237</v>
-      </c>
+      <c r="E80" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846A1A95-EA98-4645-9825-BBA53BBB8084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15085B20-C216-4ED9-A558-00E456BFD192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15085B20-C216-4ED9-A558-00E456BFD192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48D585-2869-402B-B99F-1F5BDBEF334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="276">
   <si>
     <t>Response Name</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>Process Discovery can be defined as a set of tools and techniques that are used to define, map, and analyze the processes of an organization. In a typical enterprise, processes that were initially well defined.</t>
-  </si>
-  <si>
-    <t>Process:/PD_Working, Benefits:/PD_Benefits</t>
   </si>
   <si>
     <t>action_utter_PD_Working</t>
@@ -700,6 +697,9 @@
     <t>Chatbot Benefits</t>
   </si>
   <si>
+    <t>API Security</t>
+  </si>
+  <si>
     <t>RPA Design &amp; Implementation</t>
   </si>
   <si>
@@ -785,13 +785,136 @@
   </si>
   <si>
     <t>RPAaas</t>
+  </si>
+  <si>
+    <t>IA full form</t>
+  </si>
+  <si>
+    <t>Intelligent Automation definition</t>
+  </si>
+  <si>
+    <t>Aiaas full form</t>
+  </si>
+  <si>
+    <t>AI full form</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence definition</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence challenges</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence advantages</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence disadvantages</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence benefits</t>
+  </si>
+  <si>
+    <t>Intelligent Automation meaning</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence capabilities</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence intent</t>
+  </si>
+  <si>
+    <t>API full form</t>
+  </si>
+  <si>
+    <t>API benefits</t>
+  </si>
+  <si>
+    <t>API enable interaction</t>
+  </si>
+  <si>
+    <t>API-driven process automation</t>
+  </si>
+  <si>
+    <t>API working</t>
+  </si>
+  <si>
+    <t>API Endpoint</t>
+  </si>
+  <si>
+    <t>API enable importance</t>
+  </si>
+  <si>
+    <t>API enable importance reasons</t>
+  </si>
+  <si>
+    <t>API performance</t>
+  </si>
+  <si>
+    <t>API biggest benefits</t>
+  </si>
+  <si>
+    <t>Process Analytics definition</t>
+  </si>
+  <si>
+    <t>Process Analytics benefits</t>
+  </si>
+  <si>
+    <t>ML Purpose in PA</t>
+  </si>
+  <si>
+    <t>Machine Learning definition</t>
+  </si>
+  <si>
+    <t>ML used in PA</t>
+  </si>
+  <si>
+    <t>Process Analytics types</t>
+  </si>
+  <si>
+    <t>Descriptive PA definition</t>
+  </si>
+  <si>
+    <t>Predictive PA definition</t>
+  </si>
+  <si>
+    <t>Prescriptive PA definition</t>
+  </si>
+  <si>
+    <t>Process Analytics used areas</t>
+  </si>
+  <si>
+    <t>Process Reengineering definition</t>
+  </si>
+  <si>
+    <t>Process Reengineering stages</t>
+  </si>
+  <si>
+    <t>Process Reengineering advantages</t>
+  </si>
+  <si>
+    <t>Process Reengineering disadvantages</t>
+  </si>
+  <si>
+    <t>Process Reengineering challenges</t>
+  </si>
+  <si>
+    <t>RPA definition</t>
+  </si>
+  <si>
+    <t>RPA used areas</t>
+  </si>
+  <si>
+    <t>Intelligent Automation Page</t>
+  </si>
+  <si>
+    <t>Workings:/PD_Working, Benefits:/PD_Benefits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -810,6 +933,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -865,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -903,11 +1033,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1210,17 +1397,17 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1237,7 +1424,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,7 +1450,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,7 +1467,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1639,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,7 +1654,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,7 +1682,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1792,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,7 +1818,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,8 +1828,8 @@
       <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>79</v>
+      <c r="C30" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="8" t="s">
@@ -1651,10 +1838,10 @@
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1664,10 +1851,10 @@
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1677,13 +1864,13 @@
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="8" t="s">
@@ -1692,10 +1879,10 @@
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1705,10 +1892,10 @@
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1718,13 +1905,13 @@
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8" t="s">
@@ -1733,13 +1920,13 @@
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="8" t="s">
@@ -1748,13 +1935,13 @@
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8" t="s">
@@ -1763,10 +1950,10 @@
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1776,10 +1963,10 @@
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1789,469 +1976,549 @@
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="13" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="8"/>
+      <c r="E45" s="13" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="8"/>
+      <c r="E47" s="13" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="8"/>
+      <c r="E48" s="13" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="8"/>
+      <c r="E49" s="13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="8"/>
+      <c r="E50" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="13" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="8"/>
+      <c r="E52" s="13" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="8"/>
+      <c r="E53" s="13" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="13" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="13" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="8"/>
+      <c r="E56" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="13" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="13" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="8"/>
+      <c r="E60" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="13" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="13" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="13" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="13" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="8"/>
+      <c r="E67" s="13" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="8"/>
+      <c r="E68" s="13" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="8"/>
+      <c r="E70" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="13" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="13" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="13" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="D74" s="4"/>
-      <c r="E74" s="8"/>
+      <c r="E74" s="13" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="8"/>
+      <c r="E75" s="13" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="8"/>
+      <c r="E76" s="13" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="8"/>
+      <c r="E77" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="8"/>
+      <c r="E78" s="13" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="D79" s="4"/>
-      <c r="E79" s="8"/>
+      <c r="E79" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="8"/>
+      <c r="E80" s="13" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48D585-2869-402B-B99F-1F5BDBEF334C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD25F61-DA63-4E14-A716-B66099FC1ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,9 +715,6 @@
     <t>Marlabs' Best Products</t>
   </si>
   <si>
-    <t>How' Industry Leading</t>
-  </si>
-  <si>
     <t>Computer Vision Definition</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
   </si>
   <si>
     <t>Workings:/PD_Working, Benefits:/PD_Benefits</t>
+  </si>
+  <si>
+    <t>How Marlabs Industry Leading company?</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1007,13 +1007,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1030,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,58 +1037,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1397,1127 +1340,1006 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8" t="s">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="8" t="s">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="8" t="s">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="8" t="s">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="8" t="s">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="8" t="s">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="8" t="s">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="8" t="s">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="8" t="s">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="8" t="s">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="13" t="s">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="13" t="s">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="13" t="s">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="13" t="s">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="13" t="s">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="13" t="s">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="13" t="s">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="13" t="s">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="13" t="s">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="13" t="s">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="13" t="s">
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="13" t="s">
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="13" t="s">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="13" t="s">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="13" t="s">
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="13" t="s">
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="13" t="s">
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="13" t="s">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="13" t="s">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="13" t="s">
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="13" t="s">
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="13" t="s">
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="13" t="s">
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="13" t="s">
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="13" t="s">
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="13" t="s">
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="13" t="s">
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="13" t="s">
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="13" t="s">
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="13" t="s">
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="13" t="s">
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="13" t="s">
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="13" t="s">
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="13" t="s">
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="13" t="s">
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="13" t="s">
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="13" t="s">
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="13" t="s">
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="13" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2537,10 +2359,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2564,7 +2386,6 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD25F61-DA63-4E14-A716-B66099FC1ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516169B-C72F-4B44-A188-38C60D2B00E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
   </si>
   <si>
-    <t>action_utter_Intelligent_Automation</t>
-  </si>
-  <si>
     <t>RPA Design &amp; Implementation:/RPA_Design_Implementation_Topics, Intelligent Automation:/Intelligent_Automation_Topics</t>
   </si>
   <si>
@@ -679,9 +676,6 @@
     <t>Digital Solutions</t>
   </si>
   <si>
-    <t>Intelligent Automation</t>
-  </si>
-  <si>
     <t>NLP Stands</t>
   </si>
   <si>
@@ -908,6 +902,12 @@
   </si>
   <si>
     <t>How Marlabs Industry Leading company?</t>
+  </si>
+  <si>
+    <t>Intelligent Automation Topics</t>
+  </si>
+  <si>
+    <t>action_utter_Intelligent_Automation_Page</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,936 +1410,936 @@
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
+      <c r="A5" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="E72" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="E73" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E75" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E76" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="E77" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="E78" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E79" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E80" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516169B-C72F-4B44-A188-38C60D2B00E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DEADD-CCB9-4451-91D8-F90978AAE38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="responses" sheetId="1" r:id="rId1"/>
@@ -676,15 +676,9 @@
     <t>Digital Solutions</t>
   </si>
   <si>
-    <t>NLP Stands</t>
-  </si>
-  <si>
     <t>NLP Definition</t>
   </si>
   <si>
-    <t>NLP Application</t>
-  </si>
-  <si>
     <t>Chatbot Definition</t>
   </si>
   <si>
@@ -908,6 +902,12 @@
   </si>
   <si>
     <t>action_utter_Intelligent_Automation_Page</t>
+  </si>
+  <si>
+    <t>NLP Applications in RPA</t>
+  </si>
+  <si>
+    <t>NLP Full Form</t>
   </si>
 </sst>
 </file>
@@ -1340,16 +1340,16 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="1" style="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1427,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>75</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>91</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>94</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>97</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>99</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>101</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>104</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>106</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>108</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>111</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
         <v>114</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>117</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>119</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>121</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>125</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>127</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,7 +2004,7 @@
         <v>129</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>132</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2032,7 +2032,7 @@
         <v>135</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>137</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>139</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>141</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>143</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>148</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
         <v>150</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>152</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,7 +2134,7 @@
         <v>154</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>157</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
         <v>159</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>162</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>165</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>167</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>170</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>172</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>174</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>176</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>178</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2270,7 +2270,7 @@
         <v>181</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>183</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>185</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
         <v>187</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>189</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,7 +2328,7 @@
         <v>192</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
         <v>194</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mChat\mChat-Rasa\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3516169B-C72F-4B44-A188-38C60D2B00E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9AB3A-5C6A-4C22-AA1B-FB8AE6D2C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,9 +381,6 @@
     <t>action_utter_AI_AI_Automation</t>
   </si>
   <si>
-    <t>Because hardware, software and staffing costs for AI can be expensive, many vendors are including AI components in their standard offerings or providing access to artificial intelligence as a service (AIaaS) platforms.</t>
-  </si>
-  <si>
     <t>Advantages:/AI_Advantages,Benefits:/AI_Benefits</t>
   </si>
   <si>
@@ -793,9 +790,6 @@
     <t>Artificial Intelligence definition</t>
   </si>
   <si>
-    <t>Artificial Intelligence challenges</t>
-  </si>
-  <si>
     <t>Artificial Intelligence advantages</t>
   </si>
   <si>
@@ -805,21 +799,12 @@
     <t>Artificial Intelligence benefits</t>
   </si>
   <si>
-    <t>Intelligent Automation meaning</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence capabilities</t>
-  </si>
-  <si>
     <t>Artificial Intelligence intent</t>
   </si>
   <si>
     <t>API full form</t>
   </si>
   <si>
-    <t>API benefits</t>
-  </si>
-  <si>
     <t>API enable interaction</t>
   </si>
   <si>
@@ -832,18 +817,12 @@
     <t>API Endpoint</t>
   </si>
   <si>
-    <t>API enable importance</t>
-  </si>
-  <si>
     <t>API enable importance reasons</t>
   </si>
   <si>
     <t>API performance</t>
   </si>
   <si>
-    <t>API biggest benefits</t>
-  </si>
-  <si>
     <t>Process Analytics definition</t>
   </si>
   <si>
@@ -908,6 +887,27 @@
   </si>
   <si>
     <t>action_utter_Intelligent_Automation_Page</t>
+  </si>
+  <si>
+    <t>Hardware, software and staffing costs for AI can be expensive, many vendors are including AI components in their standard offerings or providing access to artificial intelligence as a service (AIaaS) platforms.</t>
+  </si>
+  <si>
+    <t>AI automation as a service</t>
+  </si>
+  <si>
+    <t>Technology is used to IA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More details about Artificial Intelligence </t>
+  </si>
+  <si>
+    <t>API definition</t>
+  </si>
+  <si>
+    <t>API End Point  Importance</t>
+  </si>
+  <si>
+    <t>API Benefits</t>
   </si>
 </sst>
 </file>
@@ -1340,14 +1340,14 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" style="7" customWidth="1"/>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,12 +1410,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1427,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
         <v>47</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>49</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>54</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>68</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>75</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>81</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>91</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>94</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>97</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1849,7 +1849,7 @@
         <v>99</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>101</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>104</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1885,32 +1885,32 @@
         <v>106</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,422 +1924,422 @@
         <v>114</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E72" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E73" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E75" s="11" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E76" s="11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E77" s="11" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E78" s="11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E79" s="11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E80" s="11" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DEADD-CCB9-4451-91D8-F90978AAE38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5E6C5A-52FE-427D-B3CF-4B03ABCAB06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="responses" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>action_utter_Digital_Solutions</t>
   </si>
   <si>
-    <t>Intelligent Automation:/Intelligent_Automation</t>
-  </si>
-  <si>
     <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
   </si>
   <si>
     <t>NLP Full Form</t>
+  </si>
+  <si>
+    <t>Intelligent Automation:/Intelligent_Automation_Page</t>
   </si>
 </sst>
 </file>
@@ -1340,16 +1340,16 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="1" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="61.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,943 +1403,943 @@
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>123</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="E72" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E73" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E75" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E76" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="E77" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E78" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E79" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E80" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mChat\mChat-Rasa\ResponsesData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C9AB3A-5C6A-4C22-AA1B-FB8AE6D2C693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873CBB99-1F82-4D29-B9E9-8219A8B7252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="responses" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>action_utter_Digital_Solutions</t>
   </si>
   <si>
-    <t>Intelligent Automation:/Intelligent_Automation</t>
-  </si>
-  <si>
     <t>Intelligent Experience:https://www.marlabs.com/intelligent-experiences/,Cloud powered IT Modernization:https://www.marlabs.com/cloud-powered-it-modernization/,Cybersecurity &amp; Privacy:https://www.marlabs.com/cybersecurity/,Connected Systems:https://www.marlabs.com/connected-systems/,Data Analytics &amp; AI:https://www.marlabs.com/data-analytics-ai/,Salesforce-powered:https://www.marlabs.com/generate-more-force-from-salesforce/</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
   </si>
   <si>
     <t>Natural Language Processing(NLP) helps computers communicate with humans in their own language and scales other language-related tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NLP RPA:/NLP_RPA, Application:/NLP_Application</t>
   </si>
   <si>
     <t>action_utter_NLP_RPA</t>
@@ -850,9 +844,6 @@
     <t>Prescriptive PA definition</t>
   </si>
   <si>
-    <t>Process Analytics used areas</t>
-  </si>
-  <si>
     <t>Process Reengineering definition</t>
   </si>
   <si>
@@ -871,15 +862,9 @@
     <t>RPA definition</t>
   </si>
   <si>
-    <t>RPA used areas</t>
-  </si>
-  <si>
     <t>Intelligent Automation Page</t>
   </si>
   <si>
-    <t>Workings:/PD_Working, Benefits:/PD_Benefits</t>
-  </si>
-  <si>
     <t>How Marlabs Industry Leading company?</t>
   </si>
   <si>
@@ -908,6 +893,21 @@
   </si>
   <si>
     <t>API Benefits</t>
+  </si>
+  <si>
+    <t>Intelligent Automation:/Intelligent_Automation_Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NLP in RPA:/NLP_RPA, Applications:/NLP_Application</t>
+  </si>
+  <si>
+    <t>Procedure:/PD_Working, Benefits:/PD_Benefits</t>
+  </si>
+  <si>
+    <t>RPA usage areas</t>
+  </si>
+  <si>
+    <t>Process Analytics usage areas</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,943 +1403,943 @@
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
+      <c r="C17" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="E79" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/ResponsesData/mChat Responses.xlsx
+++ b/ResponsesData/mChat Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RASA CHATBOT\mChat-RASA\ResponsesData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873CBB99-1F82-4D29-B9E9-8219A8B7252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED69A1-C4ED-4272-8589-C7228F4C56E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="responses" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>action_utter_DA_Examples</t>
   </si>
   <si>
-    <t>Google Assistance, Apple Siri, Microsoft Cortana, Amazon Alexa.</t>
-  </si>
-  <si>
     <t>action_utter_Chatbot_Definition</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
   </si>
   <si>
     <t>Process Analytics usage areas</t>
+  </si>
+  <si>
+    <t>Google Assistant, Apple Siri, Microsoft Cortana, Amazon Alexa.</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,18 +1404,18 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1427,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,10 +1577,10 @@
         <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,7 +1605,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1641,7 +1641,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,669 +1677,669 @@
         <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>66</v>
+      <c r="B26" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E35" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E37" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="E38" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E40" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="E46" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="E50" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E51" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="E54" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="E55" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="E58" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="E59" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="E60" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E63" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E64" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="E65" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="E66" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="E67" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E68" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E70" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E72" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="E73" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E74" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="E75" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="E76" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="E77" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E78" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E79" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="E80" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
